--- a/data/evaluate/doc-search-results.xlsx
+++ b/data/evaluate/doc-search-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arunpshankar/Desktop/Projects/VertexAIDocExplorer/data/evaluate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEAD960-2845-5342-B668-D4EE235E3EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB88D853-B5E5-FF4D-9E1B-91B706632FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="355">
   <si>
     <t>question</t>
   </si>
@@ -1481,6 +1481,36 @@
   <si>
     <t>1) Employee health and safety Footnotes 2017 2016 2015 Number of workplace fatalities 1 2 1 0 Number of major injuries to employees 2 31 44 n/a All injury rate per 100000 employees 205 246 n/a 1 Customer death on branch premises; contractor involved in road traffic accident on bank business. [Page: 141]
 2) The main market risks to which HSBC Holdings is exposed are banking book interest rate risk and foreign currency risk. [Page: 79]</t>
+  </si>
+  <si>
+    <t>HUMAN_LABEL</t>
+  </si>
+  <si>
+    <t>1,0,0</t>
+  </si>
+  <si>
+    <t>1,1,1</t>
+  </si>
+  <si>
+    <t>0,0,0</t>
+  </si>
+  <si>
+    <t>1,1,0</t>
+  </si>
+  <si>
+    <t>IGNORE</t>
+  </si>
+  <si>
+    <t>1,0,1</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>0,1,1</t>
+  </si>
+  <si>
+    <t>1,1</t>
   </si>
 </sst>
 </file>
@@ -1847,20 +1877,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E271"/>
+  <dimension ref="A1:F271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="2" max="2" width="109.6640625" customWidth="1"/>
+    <col min="1" max="1" width="58.5" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
-    <col min="5" max="5" width="1320.1640625" customWidth="1"/>
+    <col min="4" max="5" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="1320.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1874,10 +1906,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1891,10 +1926,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1908,10 +1946,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1925,10 +1966,13 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1942,10 +1986,13 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1959,10 +2006,13 @@
         <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1976,10 +2026,13 @@
         <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1993,10 +2046,13 @@
         <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -2010,10 +2066,13 @@
         <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -2027,10 +2086,13 @@
         <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -2044,10 +2106,13 @@
         <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -2061,10 +2126,13 @@
         <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -2078,10 +2146,13 @@
         <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -2095,10 +2166,13 @@
         <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -2112,10 +2186,13 @@
         <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -2129,10 +2206,13 @@
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -2146,10 +2226,13 @@
         <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -2163,10 +2246,13 @@
         <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
@@ -2180,10 +2266,13 @@
         <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -2197,10 +2286,13 @@
         <v>7</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
@@ -2214,10 +2306,13 @@
         <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
@@ -2231,10 +2326,13 @@
         <v>15</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -2248,10 +2346,13 @@
         <v>19</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -2265,10 +2366,13 @@
         <v>31</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
@@ -2282,10 +2386,13 @@
         <v>50</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>45</v>
       </c>
@@ -2299,10 +2406,13 @@
         <v>52</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
@@ -2316,10 +2426,13 @@
         <v>54</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>45</v>
       </c>
@@ -2333,10 +2446,13 @@
         <v>7</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>45</v>
       </c>
@@ -2350,10 +2466,13 @@
         <v>9</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>45</v>
       </c>
@@ -2367,10 +2486,13 @@
         <v>21</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>45</v>
       </c>
@@ -2384,10 +2506,13 @@
         <v>38</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
@@ -2401,10 +2526,13 @@
         <v>15</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
@@ -2418,10 +2546,13 @@
         <v>21</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
@@ -2435,10 +2566,13 @@
         <v>64</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>60</v>
       </c>
@@ -2452,10 +2586,13 @@
         <v>19</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>60</v>
       </c>
@@ -2469,10 +2606,13 @@
         <v>67</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>60</v>
       </c>
@@ -2486,10 +2626,13 @@
         <v>38</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>60</v>
       </c>
@@ -2503,10 +2646,13 @@
         <v>29</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
@@ -2520,10 +2666,13 @@
         <v>71</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>60</v>
       </c>
@@ -2537,10 +2686,13 @@
         <v>31</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>60</v>
       </c>
@@ -2554,10 +2706,13 @@
         <v>74</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>76</v>
       </c>
@@ -2571,10 +2726,13 @@
         <v>78</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>76</v>
       </c>
@@ -2588,10 +2746,13 @@
         <v>50</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>76</v>
       </c>
@@ -2605,10 +2766,13 @@
         <v>81</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>76</v>
       </c>
@@ -2622,10 +2786,13 @@
         <v>83</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>76</v>
       </c>
@@ -2639,10 +2806,13 @@
         <v>71</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>76</v>
       </c>
@@ -2656,10 +2826,13 @@
         <v>7</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>76</v>
       </c>
@@ -2673,10 +2846,13 @@
         <v>29</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>76</v>
       </c>
@@ -2690,10 +2866,13 @@
         <v>67</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>76</v>
       </c>
@@ -2707,10 +2886,13 @@
         <v>9</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>76</v>
       </c>
@@ -2724,10 +2906,13 @@
         <v>40</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="224" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>91</v>
       </c>
@@ -2741,10 +2926,13 @@
         <v>29</v>
       </c>
       <c r="E52" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="224" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>91</v>
       </c>
@@ -2758,10 +2946,13 @@
         <v>31</v>
       </c>
       <c r="E53" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="224" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>91</v>
       </c>
@@ -2775,10 +2966,13 @@
         <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="224" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>91</v>
       </c>
@@ -2792,10 +2986,13 @@
         <v>38</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="224" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>91</v>
       </c>
@@ -2809,10 +3006,13 @@
         <v>21</v>
       </c>
       <c r="E56" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="224" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>91</v>
       </c>
@@ -2826,10 +3026,13 @@
         <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="224" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>91</v>
       </c>
@@ -2843,10 +3046,13 @@
         <v>34</v>
       </c>
       <c r="E58" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="224" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>91</v>
       </c>
@@ -2860,10 +3066,13 @@
         <v>9</v>
       </c>
       <c r="E59" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="224" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>91</v>
       </c>
@@ -2877,10 +3086,13 @@
         <v>78</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="224" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>91</v>
       </c>
@@ -2894,10 +3106,13 @@
         <v>15</v>
       </c>
       <c r="E61" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>105</v>
       </c>
@@ -2911,10 +3126,13 @@
         <v>15</v>
       </c>
       <c r="E62" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>105</v>
       </c>
@@ -2928,10 +3146,13 @@
         <v>43</v>
       </c>
       <c r="E63" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>105</v>
       </c>
@@ -2945,10 +3166,13 @@
         <v>21</v>
       </c>
       <c r="E64" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>105</v>
       </c>
@@ -2962,10 +3186,13 @@
         <v>40</v>
       </c>
       <c r="E65" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>105</v>
       </c>
@@ -2979,10 +3206,13 @@
         <v>67</v>
       </c>
       <c r="E66" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>105</v>
       </c>
@@ -2996,10 +3226,13 @@
         <v>9</v>
       </c>
       <c r="E67" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>105</v>
       </c>
@@ -3013,10 +3246,13 @@
         <v>34</v>
       </c>
       <c r="E68" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>105</v>
       </c>
@@ -3030,10 +3266,13 @@
         <v>83</v>
       </c>
       <c r="E69" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>105</v>
       </c>
@@ -3047,10 +3286,13 @@
         <v>115</v>
       </c>
       <c r="E70" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>105</v>
       </c>
@@ -3064,10 +3306,13 @@
         <v>71</v>
       </c>
       <c r="E71" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>118</v>
       </c>
@@ -3081,10 +3326,13 @@
         <v>120</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>118</v>
       </c>
@@ -3098,10 +3346,13 @@
         <v>9</v>
       </c>
       <c r="E73" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>118</v>
       </c>
@@ -3115,10 +3366,13 @@
         <v>71</v>
       </c>
       <c r="E74" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>118</v>
       </c>
@@ -3132,10 +3386,13 @@
         <v>124</v>
       </c>
       <c r="E75" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>118</v>
       </c>
@@ -3149,10 +3406,13 @@
         <v>64</v>
       </c>
       <c r="E76" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>118</v>
       </c>
@@ -3166,10 +3426,13 @@
         <v>38</v>
       </c>
       <c r="E77" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>118</v>
       </c>
@@ -3183,10 +3446,13 @@
         <v>15</v>
       </c>
       <c r="E78" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>118</v>
       </c>
@@ -3200,10 +3466,13 @@
         <v>50</v>
       </c>
       <c r="E79" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>118</v>
       </c>
@@ -3217,10 +3486,13 @@
         <v>11</v>
       </c>
       <c r="E80" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>118</v>
       </c>
@@ -3234,10 +3506,13 @@
         <v>131</v>
       </c>
       <c r="E81" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="272" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>133</v>
       </c>
@@ -3251,10 +3526,13 @@
         <v>13</v>
       </c>
       <c r="E82" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="272" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>133</v>
       </c>
@@ -3268,10 +3546,13 @@
         <v>64</v>
       </c>
       <c r="E83" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="272" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>133</v>
       </c>
@@ -3285,10 +3566,13 @@
         <v>137</v>
       </c>
       <c r="E84" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="272" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>133</v>
       </c>
@@ -3302,10 +3586,13 @@
         <v>7</v>
       </c>
       <c r="E85" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="272" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>133</v>
       </c>
@@ -3319,10 +3606,13 @@
         <v>15</v>
       </c>
       <c r="E86" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="272" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>133</v>
       </c>
@@ -3336,10 +3626,13 @@
         <v>21</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="272" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>133</v>
       </c>
@@ -3353,10 +3646,13 @@
         <v>40</v>
       </c>
       <c r="E88" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="272" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>133</v>
       </c>
@@ -3370,10 +3666,13 @@
         <v>31</v>
       </c>
       <c r="E89" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="272" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>133</v>
       </c>
@@ -3387,10 +3686,13 @@
         <v>19</v>
       </c>
       <c r="E90" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="272" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>133</v>
       </c>
@@ -3404,10 +3706,13 @@
         <v>120</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>146</v>
       </c>
@@ -3421,10 +3726,13 @@
         <v>71</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>146</v>
       </c>
@@ -3438,10 +3746,13 @@
         <v>64</v>
       </c>
       <c r="E93" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>146</v>
       </c>
@@ -3455,10 +3766,13 @@
         <v>13</v>
       </c>
       <c r="E94" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>146</v>
       </c>
@@ -3472,10 +3786,13 @@
         <v>7</v>
       </c>
       <c r="E95" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>146</v>
       </c>
@@ -3488,11 +3805,14 @@
       <c r="D96" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" s="2">
+        <v>1</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>146</v>
       </c>
@@ -3506,10 +3826,13 @@
         <v>74</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>146</v>
       </c>
@@ -3523,10 +3846,13 @@
         <v>154</v>
       </c>
       <c r="E98" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>146</v>
       </c>
@@ -3540,10 +3866,13 @@
         <v>156</v>
       </c>
       <c r="E99" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>146</v>
       </c>
@@ -3557,10 +3886,13 @@
         <v>83</v>
       </c>
       <c r="E100" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>146</v>
       </c>
@@ -3574,10 +3906,13 @@
         <v>15</v>
       </c>
       <c r="E101" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>160</v>
       </c>
@@ -3591,10 +3926,13 @@
         <v>7</v>
       </c>
       <c r="E102" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>160</v>
       </c>
@@ -3608,10 +3946,13 @@
         <v>15</v>
       </c>
       <c r="E103" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>160</v>
       </c>
@@ -3625,10 +3966,13 @@
         <v>9</v>
       </c>
       <c r="E104" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>160</v>
       </c>
@@ -3642,10 +3986,13 @@
         <v>165</v>
       </c>
       <c r="E105" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>160</v>
       </c>
@@ -3659,10 +4006,13 @@
         <v>50</v>
       </c>
       <c r="E106" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>160</v>
       </c>
@@ -3676,10 +4026,13 @@
         <v>168</v>
       </c>
       <c r="E107" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>160</v>
       </c>
@@ -3693,10 +4046,13 @@
         <v>31</v>
       </c>
       <c r="E108" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>160</v>
       </c>
@@ -3710,10 +4066,13 @@
         <v>171</v>
       </c>
       <c r="E109" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>160</v>
       </c>
@@ -3727,10 +4086,13 @@
         <v>13</v>
       </c>
       <c r="E110" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>160</v>
       </c>
@@ -3744,10 +4106,13 @@
         <v>17</v>
       </c>
       <c r="E111" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>175</v>
       </c>
@@ -3761,10 +4126,13 @@
         <v>7</v>
       </c>
       <c r="E112" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>175</v>
       </c>
@@ -3778,10 +4146,13 @@
         <v>9</v>
       </c>
       <c r="E113" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>175</v>
       </c>
@@ -3795,10 +4166,13 @@
         <v>21</v>
       </c>
       <c r="E114" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>175</v>
       </c>
@@ -3812,10 +4186,13 @@
         <v>31</v>
       </c>
       <c r="E115" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>175</v>
       </c>
@@ -3829,10 +4206,13 @@
         <v>137</v>
       </c>
       <c r="E116" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>175</v>
       </c>
@@ -3846,10 +4226,13 @@
         <v>15</v>
       </c>
       <c r="E117" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>175</v>
       </c>
@@ -3863,10 +4246,13 @@
         <v>165</v>
       </c>
       <c r="E118" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>175</v>
       </c>
@@ -3880,10 +4266,13 @@
         <v>81</v>
       </c>
       <c r="E119" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>175</v>
       </c>
@@ -3897,10 +4286,13 @@
         <v>13</v>
       </c>
       <c r="E120" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>175</v>
       </c>
@@ -3914,10 +4306,13 @@
         <v>40</v>
       </c>
       <c r="E121" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>187</v>
       </c>
@@ -3931,10 +4326,13 @@
         <v>7</v>
       </c>
       <c r="E122" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>187</v>
       </c>
@@ -3948,10 +4346,13 @@
         <v>40</v>
       </c>
       <c r="E123" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>187</v>
       </c>
@@ -3965,10 +4366,13 @@
         <v>9</v>
       </c>
       <c r="E124" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>187</v>
       </c>
@@ -3982,10 +4386,13 @@
         <v>15</v>
       </c>
       <c r="E125" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>187</v>
       </c>
@@ -3999,10 +4406,13 @@
         <v>13</v>
       </c>
       <c r="E126" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>187</v>
       </c>
@@ -4016,10 +4426,13 @@
         <v>19</v>
       </c>
       <c r="E127" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>187</v>
       </c>
@@ -4033,10 +4446,13 @@
         <v>31</v>
       </c>
       <c r="E128" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>187</v>
       </c>
@@ -4050,10 +4466,13 @@
         <v>168</v>
       </c>
       <c r="E129" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>187</v>
       </c>
@@ -4067,10 +4486,13 @@
         <v>64</v>
       </c>
       <c r="E130" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>187</v>
       </c>
@@ -4084,10 +4506,13 @@
         <v>23</v>
       </c>
       <c r="E131" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>199</v>
       </c>
@@ -4101,10 +4526,13 @@
         <v>7</v>
       </c>
       <c r="E132" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>199</v>
       </c>
@@ -4118,10 +4546,13 @@
         <v>15</v>
       </c>
       <c r="E133" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F133" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>199</v>
       </c>
@@ -4135,10 +4566,13 @@
         <v>9</v>
       </c>
       <c r="E134" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>199</v>
       </c>
@@ -4152,10 +4586,13 @@
         <v>31</v>
       </c>
       <c r="E135" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>199</v>
       </c>
@@ -4169,10 +4606,13 @@
         <v>23</v>
       </c>
       <c r="E136" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>199</v>
       </c>
@@ -4186,10 +4626,13 @@
         <v>95</v>
       </c>
       <c r="E137" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>199</v>
       </c>
@@ -4203,10 +4646,13 @@
         <v>207</v>
       </c>
       <c r="E138" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>199</v>
       </c>
@@ -4220,10 +4666,13 @@
         <v>34</v>
       </c>
       <c r="E139" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F139" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>199</v>
       </c>
@@ -4237,10 +4686,13 @@
         <v>81</v>
       </c>
       <c r="E140" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>199</v>
       </c>
@@ -4254,10 +4706,13 @@
         <v>19</v>
       </c>
       <c r="E141" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F141" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>212</v>
       </c>
@@ -4271,10 +4726,13 @@
         <v>15</v>
       </c>
       <c r="E142" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F142" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>212</v>
       </c>
@@ -4288,10 +4746,13 @@
         <v>38</v>
       </c>
       <c r="E143" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>212</v>
       </c>
@@ -4305,10 +4766,13 @@
         <v>50</v>
       </c>
       <c r="E144" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F144" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>212</v>
       </c>
@@ -4322,10 +4786,13 @@
         <v>9</v>
       </c>
       <c r="E145" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>212</v>
       </c>
@@ -4339,10 +4806,13 @@
         <v>34</v>
       </c>
       <c r="E146" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F146" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>212</v>
       </c>
@@ -4356,10 +4826,13 @@
         <v>81</v>
       </c>
       <c r="E147" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F147" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>212</v>
       </c>
@@ -4373,10 +4846,13 @@
         <v>43</v>
       </c>
       <c r="E148" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>212</v>
       </c>
@@ -4390,10 +4866,13 @@
         <v>83</v>
       </c>
       <c r="E149" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>212</v>
       </c>
@@ -4407,10 +4886,13 @@
         <v>31</v>
       </c>
       <c r="E150" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>212</v>
       </c>
@@ -4424,10 +4906,13 @@
         <v>222</v>
       </c>
       <c r="E151" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>224</v>
       </c>
@@ -4441,10 +4926,13 @@
         <v>11</v>
       </c>
       <c r="E152" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F152" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>224</v>
       </c>
@@ -4458,10 +4946,13 @@
         <v>15</v>
       </c>
       <c r="E153" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F153" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>224</v>
       </c>
@@ -4475,10 +4966,13 @@
         <v>227</v>
       </c>
       <c r="E154" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F154" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>224</v>
       </c>
@@ -4492,10 +4986,13 @@
         <v>23</v>
       </c>
       <c r="E155" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F155" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>224</v>
       </c>
@@ -4509,10 +5006,13 @@
         <v>74</v>
       </c>
       <c r="E156" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F156" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>224</v>
       </c>
@@ -4526,10 +5026,13 @@
         <v>31</v>
       </c>
       <c r="E157" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>224</v>
       </c>
@@ -4543,10 +5046,13 @@
         <v>21</v>
       </c>
       <c r="E158" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F158" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>224</v>
       </c>
@@ -4560,10 +5066,13 @@
         <v>233</v>
       </c>
       <c r="E159" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F159" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>224</v>
       </c>
@@ -4577,10 +5086,13 @@
         <v>50</v>
       </c>
       <c r="E160" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F160" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>224</v>
       </c>
@@ -4594,10 +5106,13 @@
         <v>38</v>
       </c>
       <c r="E161" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F161" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>237</v>
       </c>
@@ -4611,10 +5126,13 @@
         <v>38</v>
       </c>
       <c r="E162" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F162" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>237</v>
       </c>
@@ -4628,10 +5146,13 @@
         <v>34</v>
       </c>
       <c r="E163" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F163" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>237</v>
       </c>
@@ -4645,10 +5166,13 @@
         <v>9</v>
       </c>
       <c r="E164" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F164" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>237</v>
       </c>
@@ -4662,10 +5186,13 @@
         <v>31</v>
       </c>
       <c r="E165" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F165" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>237</v>
       </c>
@@ -4679,10 +5206,13 @@
         <v>71</v>
       </c>
       <c r="E166" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F166" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>237</v>
       </c>
@@ -4696,10 +5226,13 @@
         <v>74</v>
       </c>
       <c r="E167" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F167" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>237</v>
       </c>
@@ -4713,10 +5246,13 @@
         <v>67</v>
       </c>
       <c r="E168" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F168" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>237</v>
       </c>
@@ -4730,10 +5266,13 @@
         <v>50</v>
       </c>
       <c r="E169" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F169" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>237</v>
       </c>
@@ -4747,10 +5286,13 @@
         <v>29</v>
       </c>
       <c r="E170" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F170" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>237</v>
       </c>
@@ -4764,10 +5306,13 @@
         <v>248</v>
       </c>
       <c r="E171" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F171" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>250</v>
       </c>
@@ -4781,10 +5326,13 @@
         <v>34</v>
       </c>
       <c r="E172" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F172" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>250</v>
       </c>
@@ -4798,10 +5346,13 @@
         <v>9</v>
       </c>
       <c r="E173" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F173" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>250</v>
       </c>
@@ -4815,10 +5366,13 @@
         <v>15</v>
       </c>
       <c r="E174" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F174" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>250</v>
       </c>
@@ -4832,10 +5386,13 @@
         <v>38</v>
       </c>
       <c r="E175" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F175" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>250</v>
       </c>
@@ -4849,10 +5406,13 @@
         <v>29</v>
       </c>
       <c r="E176" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F176" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>250</v>
       </c>
@@ -4866,10 +5426,13 @@
         <v>71</v>
       </c>
       <c r="E177" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F177" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>250</v>
       </c>
@@ -4883,10 +5446,13 @@
         <v>83</v>
       </c>
       <c r="E178" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F178" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>250</v>
       </c>
@@ -4900,10 +5466,13 @@
         <v>50</v>
       </c>
       <c r="E179" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F179" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>250</v>
       </c>
@@ -4917,10 +5486,13 @@
         <v>31</v>
       </c>
       <c r="E180" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F180" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>250</v>
       </c>
@@ -4934,10 +5506,13 @@
         <v>23</v>
       </c>
       <c r="E181" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F181" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>261</v>
       </c>
@@ -4951,10 +5526,13 @@
         <v>52</v>
       </c>
       <c r="E182" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F182" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>261</v>
       </c>
@@ -4968,10 +5546,13 @@
         <v>9</v>
       </c>
       <c r="E183" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F183" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>261</v>
       </c>
@@ -4985,10 +5566,13 @@
         <v>264</v>
       </c>
       <c r="E184" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F184" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>261</v>
       </c>
@@ -5002,10 +5586,13 @@
         <v>25</v>
       </c>
       <c r="E185" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F185" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>261</v>
       </c>
@@ -5019,10 +5606,13 @@
         <v>11</v>
       </c>
       <c r="E186" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F186" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>261</v>
       </c>
@@ -5036,10 +5626,13 @@
         <v>15</v>
       </c>
       <c r="E187" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F187" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>261</v>
       </c>
@@ -5053,10 +5646,13 @@
         <v>43</v>
       </c>
       <c r="E188" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F188" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>261</v>
       </c>
@@ -5070,10 +5666,13 @@
         <v>270</v>
       </c>
       <c r="E189" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F189" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>261</v>
       </c>
@@ -5087,10 +5686,13 @@
         <v>29</v>
       </c>
       <c r="E190" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F190" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>261</v>
       </c>
@@ -5104,10 +5706,13 @@
         <v>21</v>
       </c>
       <c r="E191" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F191" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>274</v>
       </c>
@@ -5121,10 +5726,13 @@
         <v>9</v>
       </c>
       <c r="E192" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F192" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>274</v>
       </c>
@@ -5138,10 +5746,13 @@
         <v>15</v>
       </c>
       <c r="E193" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F193" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>274</v>
       </c>
@@ -5155,10 +5766,13 @@
         <v>11</v>
       </c>
       <c r="E194" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F194" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>274</v>
       </c>
@@ -5172,10 +5786,13 @@
         <v>270</v>
       </c>
       <c r="E195" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F195" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>274</v>
       </c>
@@ -5189,10 +5806,13 @@
         <v>52</v>
       </c>
       <c r="E196" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F196" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>274</v>
       </c>
@@ -5206,10 +5826,13 @@
         <v>25</v>
       </c>
       <c r="E197" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F197" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>274</v>
       </c>
@@ -5223,10 +5846,13 @@
         <v>264</v>
       </c>
       <c r="E198" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F198" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>274</v>
       </c>
@@ -5240,10 +5866,13 @@
         <v>29</v>
       </c>
       <c r="E199" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F199" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>274</v>
       </c>
@@ -5257,10 +5886,13 @@
         <v>31</v>
       </c>
       <c r="E200" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F200" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>274</v>
       </c>
@@ -5274,10 +5906,13 @@
         <v>67</v>
       </c>
       <c r="E201" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F201" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>283</v>
       </c>
@@ -5291,10 +5926,13 @@
         <v>9</v>
       </c>
       <c r="E202" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F202" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>283</v>
       </c>
@@ -5308,10 +5946,13 @@
         <v>270</v>
       </c>
       <c r="E203" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F203" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>283</v>
       </c>
@@ -5325,10 +5966,13 @@
         <v>11</v>
       </c>
       <c r="E204" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F204" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>283</v>
       </c>
@@ -5342,10 +5986,13 @@
         <v>15</v>
       </c>
       <c r="E205" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F205" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>283</v>
       </c>
@@ -5359,10 +6006,13 @@
         <v>52</v>
       </c>
       <c r="E206" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F206" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>283</v>
       </c>
@@ -5376,10 +6026,13 @@
         <v>25</v>
       </c>
       <c r="E207" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F207" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>283</v>
       </c>
@@ -5393,10 +6046,13 @@
         <v>264</v>
       </c>
       <c r="E208" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F208" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>283</v>
       </c>
@@ -5410,10 +6066,13 @@
         <v>29</v>
       </c>
       <c r="E209" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F209" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>283</v>
       </c>
@@ -5427,10 +6086,13 @@
         <v>31</v>
       </c>
       <c r="E210" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F210" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>283</v>
       </c>
@@ -5444,10 +6106,13 @@
         <v>288</v>
       </c>
       <c r="E211" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F211" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>290</v>
       </c>
@@ -5461,10 +6126,13 @@
         <v>9</v>
       </c>
       <c r="E212" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F212" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>290</v>
       </c>
@@ -5478,10 +6146,13 @@
         <v>15</v>
       </c>
       <c r="E213" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F213" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>290</v>
       </c>
@@ -5495,10 +6166,13 @@
         <v>52</v>
       </c>
       <c r="E214" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F214" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>290</v>
       </c>
@@ -5512,10 +6186,13 @@
         <v>25</v>
       </c>
       <c r="E215" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F215" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>290</v>
       </c>
@@ -5529,10 +6206,13 @@
         <v>270</v>
       </c>
       <c r="E216" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F216" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>290</v>
       </c>
@@ -5546,10 +6226,13 @@
         <v>11</v>
       </c>
       <c r="E217" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F217" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>290</v>
       </c>
@@ -5563,10 +6246,13 @@
         <v>264</v>
       </c>
       <c r="E218" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F218" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>290</v>
       </c>
@@ -5580,10 +6266,13 @@
         <v>29</v>
       </c>
       <c r="E219" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F219" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>290</v>
       </c>
@@ -5597,10 +6286,13 @@
         <v>31</v>
       </c>
       <c r="E220" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F220" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>290</v>
       </c>
@@ -5614,10 +6306,13 @@
         <v>288</v>
       </c>
       <c r="E221" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F221" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>295</v>
       </c>
@@ -5631,10 +6326,13 @@
         <v>9</v>
       </c>
       <c r="E222" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F222" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>295</v>
       </c>
@@ -5648,10 +6346,13 @@
         <v>52</v>
       </c>
       <c r="E223" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F223" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>295</v>
       </c>
@@ -5665,10 +6366,13 @@
         <v>25</v>
       </c>
       <c r="E224" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F224" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>295</v>
       </c>
@@ -5682,10 +6386,13 @@
         <v>11</v>
       </c>
       <c r="E225" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F225" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>295</v>
       </c>
@@ -5699,10 +6406,13 @@
         <v>15</v>
       </c>
       <c r="E226" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F226" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>295</v>
       </c>
@@ -5716,10 +6426,13 @@
         <v>264</v>
       </c>
       <c r="E227" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F227" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>295</v>
       </c>
@@ -5733,10 +6446,13 @@
         <v>29</v>
       </c>
       <c r="E228" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F228" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>295</v>
       </c>
@@ -5750,10 +6466,13 @@
         <v>270</v>
       </c>
       <c r="E229" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F229" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>295</v>
       </c>
@@ -5767,10 +6486,13 @@
         <v>288</v>
       </c>
       <c r="E230" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F230" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>295</v>
       </c>
@@ -5784,10 +6506,13 @@
         <v>43</v>
       </c>
       <c r="E231" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F231" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" ht="176" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>301</v>
       </c>
@@ -5801,10 +6526,13 @@
         <v>38</v>
       </c>
       <c r="E232" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F232" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" ht="176" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>301</v>
       </c>
@@ -5818,10 +6546,13 @@
         <v>29</v>
       </c>
       <c r="E233" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F233" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" ht="176" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>301</v>
       </c>
@@ -5835,10 +6566,13 @@
         <v>54</v>
       </c>
       <c r="E234" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F234" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" ht="176" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>301</v>
       </c>
@@ -5852,10 +6586,13 @@
         <v>306</v>
       </c>
       <c r="E235" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F235" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" ht="176" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>301</v>
       </c>
@@ -5869,10 +6606,13 @@
         <v>9</v>
       </c>
       <c r="E236" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F236" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" ht="176" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>301</v>
       </c>
@@ -5886,10 +6626,13 @@
         <v>64</v>
       </c>
       <c r="E237" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F237" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" ht="176" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>301</v>
       </c>
@@ -5903,10 +6646,13 @@
         <v>40</v>
       </c>
       <c r="E238" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F238" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" ht="176" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>301</v>
       </c>
@@ -5920,10 +6666,13 @@
         <v>13</v>
       </c>
       <c r="E239" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F239" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" ht="176" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>301</v>
       </c>
@@ -5937,10 +6686,13 @@
         <v>270</v>
       </c>
       <c r="E240" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F240" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" ht="176" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>301</v>
       </c>
@@ -5954,10 +6706,13 @@
         <v>11</v>
       </c>
       <c r="E241" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F241" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>313</v>
       </c>
@@ -5971,10 +6726,13 @@
         <v>38</v>
       </c>
       <c r="E242" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F242" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>313</v>
       </c>
@@ -5988,10 +6746,13 @@
         <v>54</v>
       </c>
       <c r="E243" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F243" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>313</v>
       </c>
@@ -6005,10 +6766,13 @@
         <v>270</v>
       </c>
       <c r="E244" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F244" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>313</v>
       </c>
@@ -6022,10 +6786,13 @@
         <v>29</v>
       </c>
       <c r="E245" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F245" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>313</v>
       </c>
@@ -6039,10 +6806,13 @@
         <v>9</v>
       </c>
       <c r="E246" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F246" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>313</v>
       </c>
@@ -6056,10 +6826,13 @@
         <v>64</v>
       </c>
       <c r="E247" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F247" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>313</v>
       </c>
@@ -6073,10 +6846,13 @@
         <v>306</v>
       </c>
       <c r="E248" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F248" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>313</v>
       </c>
@@ -6090,10 +6866,13 @@
         <v>11</v>
       </c>
       <c r="E249" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F249" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>313</v>
       </c>
@@ -6107,10 +6886,13 @@
         <v>40</v>
       </c>
       <c r="E250" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F250" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>313</v>
       </c>
@@ -6124,10 +6906,13 @@
         <v>13</v>
       </c>
       <c r="E251" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F251" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>322</v>
       </c>
@@ -6141,10 +6926,13 @@
         <v>64</v>
       </c>
       <c r="E252" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F252" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>322</v>
       </c>
@@ -6158,10 +6946,13 @@
         <v>54</v>
       </c>
       <c r="E253" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F253" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>322</v>
       </c>
@@ -6175,10 +6966,13 @@
         <v>40</v>
       </c>
       <c r="E254" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F254" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>322</v>
       </c>
@@ -6192,10 +6986,13 @@
         <v>11</v>
       </c>
       <c r="E255" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F255" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>322</v>
       </c>
@@ -6209,10 +7006,13 @@
         <v>13</v>
       </c>
       <c r="E256" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F256" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>322</v>
       </c>
@@ -6226,10 +7026,13 @@
         <v>270</v>
       </c>
       <c r="E257" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F257" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>322</v>
       </c>
@@ -6243,10 +7046,13 @@
         <v>9</v>
       </c>
       <c r="E258" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F258" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>322</v>
       </c>
@@ -6260,10 +7066,13 @@
         <v>38</v>
       </c>
       <c r="E259" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F259" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>322</v>
       </c>
@@ -6277,10 +7086,13 @@
         <v>15</v>
       </c>
       <c r="E260" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F260" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>322</v>
       </c>
@@ -6294,10 +7106,13 @@
         <v>19</v>
       </c>
       <c r="E261" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F261" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>333</v>
       </c>
@@ -6311,10 +7126,13 @@
         <v>54</v>
       </c>
       <c r="E262" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F262" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>333</v>
       </c>
@@ -6328,10 +7146,13 @@
         <v>11</v>
       </c>
       <c r="E263" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F263" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>333</v>
       </c>
@@ -6345,10 +7166,13 @@
         <v>9</v>
       </c>
       <c r="E264" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F264" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>333</v>
       </c>
@@ -6362,10 +7186,13 @@
         <v>31</v>
       </c>
       <c r="E265" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F265" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>333</v>
       </c>
@@ -6379,10 +7206,13 @@
         <v>38</v>
       </c>
       <c r="E266" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F266" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>333</v>
       </c>
@@ -6396,10 +7226,13 @@
         <v>43</v>
       </c>
       <c r="E267" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F267" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>333</v>
       </c>
@@ -6413,10 +7246,13 @@
         <v>29</v>
       </c>
       <c r="E268" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F268" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>333</v>
       </c>
@@ -6430,10 +7266,13 @@
         <v>21</v>
       </c>
       <c r="E269" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F269" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>333</v>
       </c>
@@ -6447,10 +7286,13 @@
         <v>64</v>
       </c>
       <c r="E270" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F270" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>333</v>
       </c>
@@ -6464,6 +7306,9 @@
         <v>67</v>
       </c>
       <c r="E271" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F271" s="2" t="s">
         <v>344</v>
       </c>
     </row>
